--- a/lista_Ferreteria.xlsx
+++ b/lista_Ferreteria.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>560</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>990</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -1699,6 +1699,126 @@
       </c>
       <c r="F53" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>26</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FERRETERIA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>JUEGO DE LLAVES ALLEN MILIMETRICAS</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>22</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BULONERIA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TUERCA CASTILLO M10</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>92</v>
+      </c>
+      <c r="E55" t="n">
+        <v>50</v>
+      </c>
+      <c r="F55" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>25642</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FERRETERIA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ARCO DE SIERRA</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35426</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>FERRETERIA</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ESCUADRA CON SOMBRERO 150MM NORMA DIN</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8365.4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>FERRETERIA</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PUNTA DE TRZAR DE WIDIA</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1450</v>
       </c>
     </row>
   </sheetData>
